--- a/aSYN.subset2.xlsx
+++ b/aSYN.subset2.xlsx
@@ -397,12 +397,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -468,20 +468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X86" activeCellId="1" sqref="A44:E87 X86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/aSYN.subset2.xlsx
+++ b/aSYN.subset2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">SSN</t>
   </si>
@@ -35,60 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">HB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL</t>
   </si>
 </sst>
 </file>
@@ -338,9 +284,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -358,9 +302,7 @@
       <c r="E2" s="0" t="n">
         <v>1.13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -378,9 +320,7 @@
       <c r="E3" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,9 +339,7 @@
       <c r="E4" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -419,9 +357,7 @@
       <c r="E5" s="0" t="n">
         <v>1.19</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,9 +376,7 @@
       <c r="E6" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,9 +395,7 @@
       <c r="E7" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,9 +414,7 @@
       <c r="E8" s="0" t="n">
         <v>1.19</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,9 +433,7 @@
       <c r="E9" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,9 +452,7 @@
       <c r="E10" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,9 +471,7 @@
       <c r="E11" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,9 +490,7 @@
       <c r="E12" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,9 +509,7 @@
       <c r="E13" s="0" t="n">
         <v>1.22</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,9 +528,7 @@
       <c r="E14" s="0" t="n">
         <v>1.19</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,9 +547,7 @@
       <c r="E15" s="0" t="n">
         <v>1.18</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,9 +566,7 @@
       <c r="E16" s="0" t="n">
         <v>1.24</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,9 +585,7 @@
       <c r="E17" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,9 +604,7 @@
       <c r="E18" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,9 +623,7 @@
       <c r="E19" s="0" t="n">
         <v>2.48</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,9 +642,7 @@
       <c r="E20" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,9 +661,7 @@
       <c r="E21" s="0" t="n">
         <v>2.41</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,9 +680,7 @@
       <c r="E22" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,9 +699,7 @@
       <c r="E23" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,9 +718,7 @@
       <c r="E24" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,9 +737,7 @@
       <c r="E25" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,9 +756,7 @@
       <c r="E26" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,9 +775,7 @@
       <c r="E27" s="0" t="n">
         <v>1.76</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,9 +794,7 @@
       <c r="E28" s="0" t="n">
         <v>1.71</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,9 +813,7 @@
       <c r="E29" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,9 +832,7 @@
       <c r="E30" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,9 +851,7 @@
       <c r="E31" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,9 +870,7 @@
       <c r="E32" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,9 +889,7 @@
       <c r="E33" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,9 +908,7 @@
       <c r="E34" s="0" t="n">
         <v>1.74</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,9 +927,7 @@
       <c r="E35" s="0" t="n">
         <v>1.74</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,9 +946,7 @@
       <c r="E36" s="0" t="n">
         <v>1.74</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,9 +959,7 @@
       <c r="D37" s="0" t="n">
         <v>3.79</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,9 +972,7 @@
       <c r="D38" s="0" t="n">
         <v>3.73</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,9 +985,7 @@
       <c r="D39" s="0" t="n">
         <v>3.81</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,9 +998,7 @@
       <c r="D40" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,9 +1011,7 @@
       <c r="D41" s="0" t="n">
         <v>3.78</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,9 +1024,7 @@
       <c r="D42" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,9 +1037,7 @@
       <c r="D43" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,9 +1050,7 @@
       <c r="D44" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,9 +1063,7 @@
       <c r="D45" s="0" t="n">
         <v>3.75</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,9 +1076,7 @@
       <c r="D46" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,9 +1089,7 @@
       <c r="D47" s="0" t="n">
         <v>3.78</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,9 +1102,7 @@
       <c r="D48" s="0" t="n">
         <v>3.72</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,9 +1115,7 @@
       <c r="D49" s="0" t="n">
         <v>3.79</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,9 +1128,7 @@
       <c r="D50" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,9 +1141,7 @@
       <c r="D51" s="0" t="n">
         <v>3.79</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,9 +1160,7 @@
       <c r="E52" s="0" t="n">
         <v>2.99</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,9 +1179,7 @@
       <c r="E53" s="0" t="n">
         <v>1.69</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,9 +1198,7 @@
       <c r="E54" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,9 +1217,7 @@
       <c r="E55" s="0" t="n">
         <v>1.46</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,9 +1236,7 @@
       <c r="E56" s="0" t="n">
         <v>1.43</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F56" s="4"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,9 +1255,7 @@
       <c r="E57" s="0" t="n">
         <v>1.32</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,9 +1274,7 @@
       <c r="E58" s="0" t="n">
         <v>1.44</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,9 +1293,7 @@
       <c r="E59" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,9 +1312,7 @@
       <c r="E60" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,9 +1331,7 @@
       <c r="E61" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,9 +1350,7 @@
       <c r="E62" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,9 +1369,7 @@
       <c r="E63" s="0" t="n">
         <v>1.63</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,9 +1388,7 @@
       <c r="E64" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,9 +1407,7 @@
       <c r="E65" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,9 +1426,7 @@
       <c r="E66" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,9 +1445,7 @@
       <c r="E67" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,9 +1464,7 @@
       <c r="E68" s="0" t="n">
         <v>1.63</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,9 +1483,7 @@
       <c r="E69" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,9 +1502,7 @@
       <c r="E70" s="0" t="n">
         <v>2.87</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,9 +1521,7 @@
       <c r="E71" s="0" t="n">
         <v>2.91</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,9 +1540,7 @@
       <c r="E72" s="7" t="n">
         <v>2.09</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F72" s="8"/>
       <c r="AMH72" s="0"/>
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
@@ -1759,9 +1561,7 @@
       <c r="E73" s="7" t="n">
         <v>1.73</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F73" s="8"/>
       <c r="AMH73" s="0"/>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
@@ -1782,9 +1582,7 @@
       <c r="E74" s="9" t="n">
         <v>3.676</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,9 +1601,7 @@
       <c r="E75" s="0" t="n">
         <v>3.68</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,9 +1620,7 @@
       <c r="E76" s="0" t="n">
         <v>3.68</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,9 +1639,7 @@
       <c r="E77" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,9 +1658,7 @@
       <c r="E78" s="0" t="n">
         <v>4.05</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,9 +1677,7 @@
       <c r="E79" s="0" t="n">
         <v>4.02</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,9 +1696,7 @@
       <c r="E80" s="0" t="n">
         <v>4.03</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,9 +1715,7 @@
       <c r="E81" s="0" t="n">
         <v>3.99</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,9 +1734,7 @@
       <c r="E82" s="0" t="n">
         <v>4.03</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,9 +1753,7 @@
       <c r="E83" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,9 +1772,7 @@
       <c r="E84" s="0" t="n">
         <v>4.05</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,9 +1791,7 @@
       <c r="E85" s="0" t="n">
         <v>4.06</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,9 +1810,7 @@
       <c r="E86" s="0" t="n">
         <v>2.78</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,9 +1829,7 @@
       <c r="E87" s="0" t="n">
         <v>2.77</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,9 +1848,7 @@
       <c r="E88" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,9 +1867,7 @@
       <c r="E89" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,9 +1886,7 @@
       <c r="E90" s="0" t="n">
         <v>1.79</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
@@ -2138,9 +1904,7 @@
       <c r="E91" s="0" t="n">
         <v>1.88</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,9 +1923,7 @@
       <c r="E92" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,9 +1942,7 @@
       <c r="E93" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,9 +1961,7 @@
       <c r="E94" s="0" t="n">
         <v>2.045959</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,9 +1980,7 @@
       <c r="E95" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,9 +1999,7 @@
       <c r="E96" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,9 +2018,7 @@
       <c r="E97" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,9 +2037,7 @@
       <c r="E98" s="0" t="n">
         <v>1.92</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,9 +2056,7 @@
       <c r="E99" s="0" t="n">
         <v>1.94</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,9 +2075,7 @@
       <c r="E100" s="0" t="n">
         <v>1.85</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,9 +2094,7 @@
       <c r="E101" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,9 +2113,7 @@
       <c r="E102" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,9 +2132,7 @@
       <c r="E103" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,9 +2151,7 @@
       <c r="E104" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,9 +2170,7 @@
       <c r="E105" s="0" t="n">
         <v>1.76</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
   </sheetData>
